--- a/data/messy_data.xlsx
+++ b/data/messy_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Reka\Teaching\R_course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Reka\Teaching\R_course\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Patient id</t>
   </si>
@@ -146,12 +146,6 @@
     <t>T1</t>
   </si>
   <si>
-    <t>N0</t>
-  </si>
-  <si>
-    <t>M0</t>
-  </si>
-  <si>
     <t>T1N0M0</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>T3N0M0</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
     <t>T1N1M0</t>
   </si>
   <si>
@@ -182,12 +173,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>TNM</t>
   </si>
   <si>
@@ -218,7 +203,7 @@
     <t>Patient TCGA 613 need special care!</t>
   </si>
   <si>
-    <t>What to do with this patient?</t>
+    <t>Date of birth</t>
   </si>
 </sst>
 </file>
@@ -226,16 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,17 +261,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -301,46 +274,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,28 +574,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,52 +607,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
-        <v>51</v>
-      </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -706,54 +660,51 @@
         <v>29</v>
       </c>
       <c r="D2" s="1">
+        <v>24929</v>
+      </c>
+      <c r="E2" s="1">
         <v>40269</v>
       </c>
-      <c r="E2" s="2">
-        <f>D2+34</f>
+      <c r="F2" s="2">
+        <f>E2+34</f>
         <v>40303</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>35</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
-        <f>E2+G2</f>
+      <c r="J2" s="2">
+        <f>F2+H2</f>
         <v>40338</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>234</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2">
         <v>0.13113976848522799</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -764,48 +715,45 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
+        <v>17564</v>
+      </c>
+      <c r="E3" s="1">
         <v>40210</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E20" si="0">D3+34</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F19" si="0">E3+34</f>
         <v>40244</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>26</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3">
         <v>236</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3">
         <v>0.431946225202201</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -816,870 +764,906 @@
         <v>29</v>
       </c>
       <c r="D4" s="1">
+        <v>28946</v>
+      </c>
+      <c r="E4" s="1">
         <v>41000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>41034</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>64</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4">
         <v>363</v>
       </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4">
         <v>0.168249903062346</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="1">
-        <v>41061</v>
-      </c>
-      <c r="E5" s="2">
+        <v>27912</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40969</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>41095</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>55</v>
+        <v>41003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5">
-        <v>603</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J19" si="1">F5+H5</f>
+        <v>41025</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>0.23775244622221001</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1">
-        <v>40969</v>
-      </c>
-      <c r="E6" s="2">
+        <v>8096</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41061</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6" si="2">E6+34</f>
+        <v>41095</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6">
+        <v>603</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6">
+        <v>0.235263281946828</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22160</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38961</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>41003</v>
-      </c>
-      <c r="F6" t="s">
+        <v>38995</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-      <c r="H6">
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" ref="I3:I20" si="1">E6+G6</f>
-        <v>41025</v>
-      </c>
-      <c r="J6">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6">
-        <v>0.23775244622221001</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>39031</v>
+      </c>
+      <c r="K7">
+        <v>604</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>0.145468121460226</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
         <v>41</v>
       </c>
-      <c r="R6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7">
-        <v>603</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7">
-        <v>0.235263281946828</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>38961</v>
-      </c>
-      <c r="E8" s="2">
+        <v>16954</v>
+      </c>
+      <c r="E8" s="1">
+        <v>37408</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>38995</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>36</v>
+        <v>37442</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>39031</v>
-      </c>
-      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8">
         <v>604</v>
       </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <v>0.145468121460226</v>
+      <c r="M8" t="s">
+        <v>53</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>0.12914103983564801</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>37408</v>
-      </c>
-      <c r="E9" s="2">
+        <v>17715</v>
+      </c>
+      <c r="E9" s="1">
+        <v>41821</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>37442</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9">
+        <v>41855</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9">
         <v>604</v>
       </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9">
-        <v>0.12914103983564801</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9">
+        <v>0.17712372043991201</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>41821</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>41855</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10">
-        <v>604</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10">
-        <v>0.17712372043991201</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
+        <v>12601</v>
+      </c>
+      <c r="E10" s="1">
         <v>40360</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>40394</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
+      <c r="H10">
         <v>37</v>
       </c>
-      <c r="H11">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
         <v>40431</v>
       </c>
-      <c r="J11">
+      <c r="K10">
         <v>604</v>
       </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11">
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10">
         <v>0.116781026222547</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
         <v>41</v>
       </c>
-      <c r="R11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10533</v>
+      </c>
+      <c r="E11" s="5">
+        <v>41944</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>41978</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>42012</v>
+      </c>
+      <c r="K11" s="4">
+        <v>604</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.40431039983585398</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5">
-        <v>41944</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>41978</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4">
-        <v>34</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="1"/>
-        <v>42012</v>
-      </c>
-      <c r="J12" s="4">
-        <v>604</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.40431039983585398</v>
-      </c>
-      <c r="N12" s="4">
-        <v>2</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4">
-        <v>96</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="D12" s="1">
+        <v>2983</v>
+      </c>
+      <c r="E12" s="5">
         <v>38047</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>38081</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H12" s="4">
         <v>63</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4">
         <v>604</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="4">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.27727324438214901</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="Q12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B13" s="4">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D13" s="1">
+        <v>23193</v>
+      </c>
+      <c r="E13" s="5">
         <v>39630</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>39664</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H13" s="4">
         <v>29</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4">
         <v>604</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N13" s="4">
         <v>0.24342334239774699</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O13" s="4">
         <v>1</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="Q13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B14">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D14" s="1">
+        <v>36495</v>
+      </c>
+      <c r="E14" s="1">
         <v>42339</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>42373</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G15">
+      <c r="H14">
         <v>53</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14">
+        <v>604</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>0.23522167268494501</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32174</v>
+      </c>
+      <c r="E15" s="1">
+        <v>41671</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>41705</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15">
         <v>604</v>
       </c>
-      <c r="L15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15">
-        <v>0.23522167268494501</v>
+      <c r="M15" t="s">
+        <v>51</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.9247774961358994E-2</v>
       </c>
       <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
         <v>43</v>
       </c>
-      <c r="P15" t="s">
-        <v>40</v>
-      </c>
       <c r="Q15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>41671</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>41705</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16">
-        <v>604</v>
-      </c>
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16">
-        <v>8.9247774961358994E-2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1">
+        <v>28550</v>
+      </c>
+      <c r="E16" s="1">
         <v>41699</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>41733</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="G17">
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>41741</v>
       </c>
-      <c r="J17">
+      <c r="K16">
         <v>604</v>
       </c>
-      <c r="L17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17">
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16">
         <v>0.34572399014206601</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>39</v>
       </c>
-      <c r="P17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>41</v>
-      </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="Q16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B17">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D17" s="1">
+        <v>24898</v>
+      </c>
+      <c r="E17" s="1">
         <v>41699</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>41733</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="G18">
+      <c r="H17">
         <v>28</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17">
         <v>604</v>
       </c>
-      <c r="L18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18">
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17">
         <v>0.12975371581447001</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>39</v>
       </c>
-      <c r="P18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="Q17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="B18">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D18" s="1">
+        <v>20941</v>
+      </c>
+      <c r="E18" s="1">
         <v>41395</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>41429</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="G19">
+      <c r="H18">
         <v>48</v>
       </c>
-      <c r="H19">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>41477</v>
       </c>
-      <c r="J19">
+      <c r="K18">
         <v>604</v>
       </c>
-      <c r="L19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19">
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18">
         <v>6.4862444762653501E-2</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
         <v>41</v>
       </c>
-      <c r="R19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B19" s="7">
         <v>66</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D19" s="1">
+        <v>16681</v>
+      </c>
+      <c r="E19" s="8">
         <v>40787</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>40821</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H19" s="7">
         <v>53</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I19" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J19" s="9">
         <f t="shared" si="1"/>
         <v>40874</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K19" s="7">
         <v>604</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="7">
         <v>0.32369058375831</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O19" s="7">
         <v>2</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="10"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
